--- a/xls/14002-108-240005222_2.xlsx
+++ b/xls/14002-108-240005222_2.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ค่าวัคซ่าพยาบาลทั่วไป</t>
+          <t>ค่ารักษาพยาบาลทั่วไป</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ค่าวัคซ่าพยาบาลทั่วไป</t>
+          <t>ค่าวัคซีนพยาบาลทั่วไป</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
